--- a/resultados/Venda de Drone/Sem SPAD 1 Drones/vel40/field_100ha_100ha_2%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Sem SPAD 1 Drones/vel40/field_100ha_100ha_2%_12m_0_LM/Planilha_Unificada.xlsx
@@ -2127,28 +2127,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>162.1926639574716</v>
+        <v>211.1352703092126</v>
       </c>
       <c r="AB2" t="n">
-        <v>221.919158261841</v>
+        <v>288.8845914676634</v>
       </c>
       <c r="AC2" t="n">
-        <v>200.7395052628894</v>
+        <v>261.3138515101452</v>
       </c>
       <c r="AD2" t="n">
-        <v>162192.6639574716</v>
+        <v>211135.2703092126</v>
       </c>
       <c r="AE2" t="n">
-        <v>221919.158261841</v>
+        <v>288884.5914676634</v>
       </c>
       <c r="AF2" t="n">
         <v>1.615487020706919e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.716666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>200739.5052628894</v>
+        <v>261313.8515101452</v>
       </c>
     </row>
     <row r="3">
@@ -2233,28 +2233,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>81.91120530990653</v>
+        <v>111.2767691209512</v>
       </c>
       <c r="AB3" t="n">
-        <v>112.0745247723076</v>
+        <v>152.253784695801</v>
       </c>
       <c r="AC3" t="n">
-        <v>101.3782894256508</v>
+        <v>137.7228971740043</v>
       </c>
       <c r="AD3" t="n">
-        <v>81911.20530990654</v>
+        <v>111276.7691209512</v>
       </c>
       <c r="AE3" t="n">
-        <v>112074.5247723076</v>
+        <v>152253.784695801</v>
       </c>
       <c r="AF3" t="n">
         <v>2.776956155793942e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.649999999999999</v>
       </c>
       <c r="AH3" t="n">
-        <v>101378.2894256508</v>
+        <v>137722.8971740043</v>
       </c>
     </row>
     <row r="4">
@@ -2339,28 +2339,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>65.76344582031737</v>
+        <v>95.09484421258121</v>
       </c>
       <c r="AB4" t="n">
-        <v>89.98044784979193</v>
+        <v>130.1129611400376</v>
       </c>
       <c r="AC4" t="n">
-        <v>81.39284019538128</v>
+        <v>117.6951627435548</v>
       </c>
       <c r="AD4" t="n">
-        <v>65763.44582031737</v>
+        <v>95094.84421258121</v>
       </c>
       <c r="AE4" t="n">
-        <v>89980.44784979193</v>
+        <v>130112.9611400376</v>
       </c>
       <c r="AF4" t="n">
         <v>3.233271817156211e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.854166666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>81392.84019538129</v>
+        <v>117695.1627435548</v>
       </c>
     </row>
     <row r="5">
@@ -2445,28 +2445,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>63.97928848224826</v>
+        <v>93.31068687451211</v>
       </c>
       <c r="AB5" t="n">
-        <v>87.53928506838041</v>
+        <v>127.6717983586261</v>
       </c>
       <c r="AC5" t="n">
-        <v>79.18465856363343</v>
+        <v>115.486981111807</v>
       </c>
       <c r="AD5" t="n">
-        <v>63979.28848224826</v>
+        <v>93310.68687451212</v>
       </c>
       <c r="AE5" t="n">
-        <v>87539.28506838041</v>
+        <v>127671.7983586261</v>
       </c>
       <c r="AF5" t="n">
         <v>3.364847729748122e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.6625</v>
       </c>
       <c r="AH5" t="n">
-        <v>79184.65856363343</v>
+        <v>115486.981111807</v>
       </c>
     </row>
     <row r="6">
@@ -2551,28 +2551,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>63.94105664671274</v>
+        <v>93.27245503897657</v>
       </c>
       <c r="AB6" t="n">
-        <v>87.48697458433118</v>
+        <v>127.6194878745769</v>
       </c>
       <c r="AC6" t="n">
-        <v>79.13734051876361</v>
+        <v>115.4396630669372</v>
       </c>
       <c r="AD6" t="n">
-        <v>63941.05664671274</v>
+        <v>93272.45503897658</v>
       </c>
       <c r="AE6" t="n">
-        <v>87486.97458433118</v>
+        <v>127619.4878745769</v>
       </c>
       <c r="AF6" t="n">
         <v>3.372117741523168e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.654166666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>79137.34051876361</v>
+        <v>115439.6630669372</v>
       </c>
     </row>
   </sheetData>
@@ -2848,28 +2848,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>115.9658419679853</v>
+        <v>154.6880385684173</v>
       </c>
       <c r="AB2" t="n">
-        <v>158.6695810324039</v>
+        <v>211.6509987238364</v>
       </c>
       <c r="AC2" t="n">
-        <v>143.5263789128705</v>
+        <v>191.4513244597363</v>
       </c>
       <c r="AD2" t="n">
-        <v>115965.8419679853</v>
+        <v>154688.0385684173</v>
       </c>
       <c r="AE2" t="n">
-        <v>158669.5810324039</v>
+        <v>211650.9987238364</v>
       </c>
       <c r="AF2" t="n">
         <v>2.228355164815859e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.708333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>143526.3789128705</v>
+        <v>191451.3244597363</v>
       </c>
     </row>
     <row r="3">
@@ -2954,28 +2954,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>76.38956904348451</v>
+        <v>95.71751295477686</v>
       </c>
       <c r="AB3" t="n">
-        <v>104.5195784351929</v>
+        <v>130.9649239833154</v>
       </c>
       <c r="AC3" t="n">
-        <v>94.54437656351412</v>
+        <v>118.4658154488079</v>
       </c>
       <c r="AD3" t="n">
-        <v>76389.56904348452</v>
+        <v>95717.51295477686</v>
       </c>
       <c r="AE3" t="n">
-        <v>104519.5784351929</v>
+        <v>130964.9239833154</v>
       </c>
       <c r="AF3" t="n">
         <v>3.281759424546992e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.233333333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>94544.37656351412</v>
+        <v>118465.8154488079</v>
       </c>
     </row>
     <row r="4">
@@ -3060,28 +3060,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>62.22981098321735</v>
+        <v>91.23729301476051</v>
       </c>
       <c r="AB4" t="n">
-        <v>85.14557277270748</v>
+        <v>124.8348894080341</v>
       </c>
       <c r="AC4" t="n">
-        <v>77.01939880986244</v>
+        <v>112.9208227698318</v>
       </c>
       <c r="AD4" t="n">
-        <v>62229.81098321735</v>
+        <v>91237.29301476051</v>
       </c>
       <c r="AE4" t="n">
-        <v>85145.57277270748</v>
+        <v>124834.8894080341</v>
       </c>
       <c r="AF4" t="n">
         <v>3.690377071897116e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.654166666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>77019.39880986244</v>
+        <v>112920.8227698318</v>
       </c>
     </row>
     <row r="5">
@@ -3166,28 +3166,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>62.21332678332078</v>
+        <v>91.22080881486391</v>
       </c>
       <c r="AB5" t="n">
-        <v>85.12301836317742</v>
+        <v>124.812334998504</v>
       </c>
       <c r="AC5" t="n">
-        <v>76.99899696152262</v>
+        <v>112.900420921492</v>
       </c>
       <c r="AD5" t="n">
-        <v>62213.32678332078</v>
+        <v>91220.80881486392</v>
       </c>
       <c r="AE5" t="n">
-        <v>85123.01836317743</v>
+        <v>124812.334998504</v>
       </c>
       <c r="AF5" t="n">
         <v>3.693138558922783e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.649999999999999</v>
       </c>
       <c r="AH5" t="n">
-        <v>76998.99696152261</v>
+        <v>112900.420921492</v>
       </c>
     </row>
   </sheetData>
@@ -3463,28 +3463,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>58.14859736997176</v>
+        <v>86.18087717037014</v>
       </c>
       <c r="AB2" t="n">
-        <v>79.56147625663037</v>
+        <v>117.9164781764193</v>
       </c>
       <c r="AC2" t="n">
-        <v>71.96824062794927</v>
+        <v>106.662694996109</v>
       </c>
       <c r="AD2" t="n">
-        <v>58148.59736997176</v>
+        <v>86180.87717037013</v>
       </c>
       <c r="AE2" t="n">
-        <v>79561.47625663037</v>
+        <v>117916.4781764193</v>
       </c>
       <c r="AF2" t="n">
         <v>4.89386960450296e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.899999999999999</v>
       </c>
       <c r="AH2" t="n">
-        <v>71968.24062794927</v>
+        <v>106662.694996109</v>
       </c>
     </row>
     <row r="3">
@@ -3569,28 +3569,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>57.99083798335975</v>
+        <v>86.02311778375814</v>
       </c>
       <c r="AB3" t="n">
-        <v>79.34562290401497</v>
+        <v>117.7006248238039</v>
       </c>
       <c r="AC3" t="n">
-        <v>71.77298801635534</v>
+        <v>106.4674423845151</v>
       </c>
       <c r="AD3" t="n">
-        <v>57990.83798335975</v>
+        <v>86023.11778375813</v>
       </c>
       <c r="AE3" t="n">
-        <v>79345.62290401498</v>
+        <v>117700.6248238039</v>
       </c>
       <c r="AF3" t="n">
         <v>4.943747172414561e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.850000000000001</v>
       </c>
       <c r="AH3" t="n">
-        <v>71772.98801635535</v>
+        <v>106467.4423845151</v>
       </c>
     </row>
   </sheetData>
@@ -3866,28 +3866,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>74.63782172803694</v>
+        <v>103.0855321134732</v>
       </c>
       <c r="AB2" t="n">
-        <v>102.1227604765614</v>
+        <v>141.0461728503029</v>
       </c>
       <c r="AC2" t="n">
-        <v>92.37630754689856</v>
+        <v>127.5849240730549</v>
       </c>
       <c r="AD2" t="n">
-        <v>74637.82172803694</v>
+        <v>103085.5321134732</v>
       </c>
       <c r="AE2" t="n">
-        <v>102122.7604765614</v>
+        <v>141046.1728503029</v>
       </c>
       <c r="AF2" t="n">
         <v>3.680452097615441e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.641666666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>92376.30754689856</v>
+        <v>127584.9240730549</v>
       </c>
     </row>
     <row r="3">
@@ -3972,28 +3972,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>59.55745333653027</v>
+        <v>87.97099830318574</v>
       </c>
       <c r="AB3" t="n">
-        <v>81.48913514441337</v>
+        <v>120.365800884907</v>
       </c>
       <c r="AC3" t="n">
-        <v>73.71192645696911</v>
+        <v>108.8782577829455</v>
       </c>
       <c r="AD3" t="n">
-        <v>59557.45333653026</v>
+        <v>87970.99830318574</v>
       </c>
       <c r="AE3" t="n">
-        <v>81489.13514441336</v>
+        <v>120365.800884907</v>
       </c>
       <c r="AF3" t="n">
         <v>4.378579681289013e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.741666666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>73711.92645696911</v>
+        <v>108878.2577829455</v>
       </c>
     </row>
   </sheetData>
@@ -4269,28 +4269,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>67.04536276110998</v>
+        <v>85.51469475454046</v>
       </c>
       <c r="AB2" t="n">
-        <v>91.73442316236755</v>
+        <v>117.0049780051876</v>
       </c>
       <c r="AC2" t="n">
-        <v>82.97941856584504</v>
+        <v>105.8381871219209</v>
       </c>
       <c r="AD2" t="n">
-        <v>67045.36276110998</v>
+        <v>85514.69475454045</v>
       </c>
       <c r="AE2" t="n">
-        <v>91734.42316236754</v>
+        <v>117004.9780051876</v>
       </c>
       <c r="AF2" t="n">
         <v>5.228558245599069e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.25</v>
       </c>
       <c r="AH2" t="n">
-        <v>82979.41856584504</v>
+        <v>105838.1871219209</v>
       </c>
     </row>
   </sheetData>
@@ -4566,28 +4566,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>130.9335470488714</v>
+        <v>169.7019420364735</v>
       </c>
       <c r="AB2" t="n">
-        <v>179.1490554526065</v>
+        <v>232.1936838154941</v>
       </c>
       <c r="AC2" t="n">
-        <v>162.0513210375383</v>
+        <v>210.0334445180924</v>
       </c>
       <c r="AD2" t="n">
-        <v>130933.5470488713</v>
+        <v>169701.9420364735</v>
       </c>
       <c r="AE2" t="n">
-        <v>179149.0554526065</v>
+        <v>232193.6838154941</v>
       </c>
       <c r="AF2" t="n">
         <v>2.061222498060044e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.129166666666668</v>
       </c>
       <c r="AH2" t="n">
-        <v>162051.3210375383</v>
+        <v>210033.4445180924</v>
       </c>
     </row>
     <row r="3">
@@ -4672,28 +4672,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>78.49819728377587</v>
+        <v>107.5234981537706</v>
       </c>
       <c r="AB3" t="n">
-        <v>107.4046966196706</v>
+        <v>147.1183937758782</v>
       </c>
       <c r="AC3" t="n">
-        <v>97.15414311775501</v>
+        <v>133.0776207559108</v>
       </c>
       <c r="AD3" t="n">
-        <v>78498.19728377587</v>
+        <v>107523.4981537706</v>
       </c>
       <c r="AE3" t="n">
-        <v>107404.6966196706</v>
+        <v>147118.3937758782</v>
       </c>
       <c r="AF3" t="n">
         <v>3.086484414584564e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.429166666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>97154.14311775501</v>
+        <v>133077.6207559108</v>
       </c>
     </row>
     <row r="4">
@@ -4778,28 +4778,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>63.37865361583906</v>
+        <v>92.47127429353817</v>
       </c>
       <c r="AB4" t="n">
-        <v>86.71746994601962</v>
+        <v>126.5232770330687</v>
       </c>
       <c r="AC4" t="n">
-        <v>78.44127632312569</v>
+        <v>114.4480730496006</v>
       </c>
       <c r="AD4" t="n">
-        <v>63378.65361583907</v>
+        <v>92471.27429353817</v>
       </c>
       <c r="AE4" t="n">
-        <v>86717.46994601961</v>
+        <v>126523.2770330687</v>
       </c>
       <c r="AF4" t="n">
         <v>3.530197468725183e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.745833333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>78441.2763231257</v>
+        <v>114448.0730496006</v>
       </c>
     </row>
     <row r="5">
@@ -4884,28 +4884,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>62.58588578220487</v>
+        <v>91.67850645990396</v>
       </c>
       <c r="AB5" t="n">
-        <v>85.6327700215934</v>
+        <v>125.4385771086425</v>
       </c>
       <c r="AC5" t="n">
-        <v>77.46009863710047</v>
+        <v>113.4668953635754</v>
       </c>
       <c r="AD5" t="n">
-        <v>62585.88578220487</v>
+        <v>91678.50645990396</v>
       </c>
       <c r="AE5" t="n">
-        <v>85632.7700215934</v>
+        <v>125438.5771086425</v>
       </c>
       <c r="AF5" t="n">
         <v>3.604002169083053e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.649999999999999</v>
       </c>
       <c r="AH5" t="n">
-        <v>77460.09863710047</v>
+        <v>113466.8953635754</v>
       </c>
     </row>
   </sheetData>
@@ -5181,28 +5181,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>66.99785494727686</v>
+        <v>94.56641003666198</v>
       </c>
       <c r="AB2" t="n">
-        <v>91.66942087558425</v>
+        <v>129.3899341876748</v>
       </c>
       <c r="AC2" t="n">
-        <v>82.92062000608107</v>
+        <v>117.0411404687506</v>
       </c>
       <c r="AD2" t="n">
-        <v>66997.85494727686</v>
+        <v>94566.41003666198</v>
       </c>
       <c r="AE2" t="n">
-        <v>91669.42087558426</v>
+        <v>129389.9341876748</v>
       </c>
       <c r="AF2" t="n">
         <v>5.385103241271877e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.579166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>82920.62000608107</v>
+        <v>117041.1404687506</v>
       </c>
     </row>
   </sheetData>
@@ -5478,28 +5478,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>93.54515290276845</v>
+        <v>122.344649672328</v>
       </c>
       <c r="AB2" t="n">
-        <v>127.9926051223974</v>
+        <v>167.397347146616</v>
       </c>
       <c r="AC2" t="n">
-        <v>115.7771705282992</v>
+        <v>151.4211792786417</v>
       </c>
       <c r="AD2" t="n">
-        <v>93545.15290276844</v>
+        <v>122344.649672328</v>
       </c>
       <c r="AE2" t="n">
-        <v>127992.6051223974</v>
+        <v>167397.347146616</v>
       </c>
       <c r="AF2" t="n">
         <v>2.842203134326867e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.570833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>115777.1705282992</v>
+        <v>151421.1792786416</v>
       </c>
     </row>
     <row r="3">
@@ -5584,28 +5584,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>61.37172650896857</v>
+        <v>90.10289244096653</v>
       </c>
       <c r="AB3" t="n">
-        <v>83.97150373902562</v>
+        <v>123.2827524967487</v>
       </c>
       <c r="AC3" t="n">
-        <v>75.95738127693856</v>
+        <v>111.5168196269212</v>
       </c>
       <c r="AD3" t="n">
-        <v>61371.72650896857</v>
+        <v>90102.89244096653</v>
       </c>
       <c r="AE3" t="n">
-        <v>83971.50373902562</v>
+        <v>123282.7524967487</v>
       </c>
       <c r="AF3" t="n">
         <v>3.937664536647211e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.741666666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>75957.38127693857</v>
+        <v>111516.8196269212</v>
       </c>
     </row>
     <row r="4">
@@ -5690,28 +5690,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>60.89508538573776</v>
+        <v>89.62625131773572</v>
       </c>
       <c r="AB4" t="n">
-        <v>83.31934232629926</v>
+        <v>122.6305910840223</v>
       </c>
       <c r="AC4" t="n">
-        <v>75.36746123412833</v>
+        <v>110.9268995841109</v>
       </c>
       <c r="AD4" t="n">
-        <v>60895.08538573776</v>
+        <v>89626.25131773572</v>
       </c>
       <c r="AE4" t="n">
-        <v>83319.34232629926</v>
+        <v>122630.5910840223</v>
       </c>
       <c r="AF4" t="n">
         <v>3.997360751837274e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.670833333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>75367.46123412832</v>
+        <v>110926.8995841109</v>
       </c>
     </row>
   </sheetData>
@@ -5987,28 +5987,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>111.6135385184278</v>
+        <v>150.1164150256618</v>
       </c>
       <c r="AB2" t="n">
-        <v>152.7145674426455</v>
+        <v>205.3959017068451</v>
       </c>
       <c r="AC2" t="n">
-        <v>138.1397034622027</v>
+        <v>185.7932051229609</v>
       </c>
       <c r="AD2" t="n">
-        <v>111613.5385184278</v>
+        <v>150116.4150256618</v>
       </c>
       <c r="AE2" t="n">
-        <v>152714.5674426455</v>
+        <v>205395.9017068451</v>
       </c>
       <c r="AF2" t="n">
         <v>2.401599802119808e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.337499999999999</v>
       </c>
       <c r="AH2" t="n">
-        <v>138139.7034622027</v>
+        <v>185793.2051229609</v>
       </c>
     </row>
     <row r="3">
@@ -6093,28 +6093,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>74.49761471228162</v>
+        <v>93.76664119021763</v>
       </c>
       <c r="AB3" t="n">
-        <v>101.9309230521081</v>
+        <v>128.2956551686588</v>
       </c>
       <c r="AC3" t="n">
-        <v>92.20277881698948</v>
+        <v>116.0512979034789</v>
       </c>
       <c r="AD3" t="n">
-        <v>74497.61471228162</v>
+        <v>93766.64119021763</v>
       </c>
       <c r="AE3" t="n">
-        <v>101930.9230521081</v>
+        <v>128295.6551686588</v>
       </c>
       <c r="AF3" t="n">
         <v>3.487652042168809e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.054166666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>92202.77881698948</v>
+        <v>116051.2979034789</v>
       </c>
     </row>
     <row r="4">
@@ -6199,28 +6199,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>61.71474783201042</v>
+        <v>90.63385371351909</v>
       </c>
       <c r="AB4" t="n">
-        <v>84.440840646244</v>
+        <v>124.0092371342129</v>
       </c>
       <c r="AC4" t="n">
-        <v>76.38192532845065</v>
+        <v>112.1739695902136</v>
       </c>
       <c r="AD4" t="n">
-        <v>61714.74783201043</v>
+        <v>90633.85371351909</v>
       </c>
       <c r="AE4" t="n">
-        <v>84440.840646244</v>
+        <v>124009.2371342128</v>
       </c>
       <c r="AF4" t="n">
         <v>3.789485981823296e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.649999999999999</v>
       </c>
       <c r="AH4" t="n">
-        <v>76381.92532845066</v>
+        <v>112173.9695902136</v>
       </c>
     </row>
   </sheetData>
@@ -6496,28 +6496,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>153.753347858971</v>
+        <v>192.7715333771316</v>
       </c>
       <c r="AB2" t="n">
-        <v>210.3721136595288</v>
+        <v>263.7585164463069</v>
       </c>
       <c r="AC2" t="n">
-        <v>190.2944943910394</v>
+        <v>238.5857738241513</v>
       </c>
       <c r="AD2" t="n">
-        <v>153753.347858971</v>
+        <v>192771.5333771316</v>
       </c>
       <c r="AE2" t="n">
-        <v>210372.1136595288</v>
+        <v>263758.516446307</v>
       </c>
       <c r="AF2" t="n">
         <v>1.757397835179285e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.116666666666665</v>
       </c>
       <c r="AH2" t="n">
-        <v>190294.4943910394</v>
+        <v>238585.7738241513</v>
       </c>
     </row>
     <row r="3">
@@ -6602,28 +6602,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>81.66103899355865</v>
+        <v>110.9495439238718</v>
       </c>
       <c r="AB3" t="n">
-        <v>111.7322361817216</v>
+        <v>151.8060607450004</v>
       </c>
       <c r="AC3" t="n">
-        <v>101.0686683777451</v>
+        <v>137.3179033686834</v>
       </c>
       <c r="AD3" t="n">
-        <v>81661.03899355864</v>
+        <v>110949.5439238718</v>
       </c>
       <c r="AE3" t="n">
-        <v>111732.2361817216</v>
+        <v>151806.0607450004</v>
       </c>
       <c r="AF3" t="n">
         <v>2.81947388524562e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.683333333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>101068.6683777451</v>
+        <v>137317.9033686834</v>
       </c>
     </row>
     <row r="4">
@@ -6708,28 +6708,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>64.96627736997765</v>
+        <v>94.22061688151003</v>
       </c>
       <c r="AB4" t="n">
-        <v>88.88972680744772</v>
+        <v>128.9168047374788</v>
       </c>
       <c r="AC4" t="n">
-        <v>80.40621603848145</v>
+        <v>116.6131658292398</v>
       </c>
       <c r="AD4" t="n">
-        <v>64966.27736997764</v>
+        <v>94220.61688151002</v>
       </c>
       <c r="AE4" t="n">
-        <v>88889.72680744772</v>
+        <v>128916.8047374788</v>
       </c>
       <c r="AF4" t="n">
         <v>3.328399746878536e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.8125</v>
       </c>
       <c r="AH4" t="n">
-        <v>80406.21603848145</v>
+        <v>116613.1658292398</v>
       </c>
     </row>
     <row r="5">
@@ -6814,28 +6814,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>63.40198835252951</v>
+        <v>92.65632786406188</v>
       </c>
       <c r="AB5" t="n">
-        <v>86.74939756221539</v>
+        <v>126.7764754922465</v>
       </c>
       <c r="AC5" t="n">
-        <v>78.47015681244247</v>
+        <v>114.6771066032008</v>
       </c>
       <c r="AD5" t="n">
-        <v>63401.98835252952</v>
+        <v>92656.32786406188</v>
       </c>
       <c r="AE5" t="n">
-        <v>86749.3975622154</v>
+        <v>126776.4754922465</v>
       </c>
       <c r="AF5" t="n">
         <v>3.451035727893148e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.641666666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>78470.15681244247</v>
+        <v>114677.1066032008</v>
       </c>
     </row>
   </sheetData>
@@ -7111,28 +7111,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>77.45912879959738</v>
+        <v>106.0183547672152</v>
       </c>
       <c r="AB2" t="n">
-        <v>105.982997279152</v>
+        <v>145.0589901921544</v>
       </c>
       <c r="AC2" t="n">
-        <v>95.8681287669275</v>
+        <v>131.2147637598259</v>
       </c>
       <c r="AD2" t="n">
-        <v>77459.12879959738</v>
+        <v>106018.3547672152</v>
       </c>
       <c r="AE2" t="n">
-        <v>105982.997279152</v>
+        <v>145058.9901921544</v>
       </c>
       <c r="AF2" t="n">
         <v>3.367280748299005e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.933333333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>95868.1287669275</v>
+        <v>131214.7637598259</v>
       </c>
     </row>
     <row r="3">
@@ -7217,28 +7217,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>59.954382645088</v>
+        <v>88.47944319392501</v>
       </c>
       <c r="AB3" t="n">
-        <v>82.03223133566698</v>
+        <v>121.0614776154216</v>
       </c>
       <c r="AC3" t="n">
-        <v>74.20319030996994</v>
+        <v>109.5075401026884</v>
       </c>
       <c r="AD3" t="n">
-        <v>59954.382645088</v>
+        <v>88479.44319392501</v>
       </c>
       <c r="AE3" t="n">
-        <v>82032.23133566698</v>
+        <v>121061.4776154216</v>
       </c>
       <c r="AF3" t="n">
         <v>4.243738316003132e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.708333333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>74203.19030996994</v>
+        <v>109507.5401026884</v>
       </c>
     </row>
   </sheetData>
@@ -7514,28 +7514,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>69.44938009552115</v>
+        <v>88.2180924438909</v>
       </c>
       <c r="AB2" t="n">
-        <v>95.02370573706686</v>
+        <v>120.7038859892438</v>
       </c>
       <c r="AC2" t="n">
-        <v>85.9547766281532</v>
+        <v>109.1840765194299</v>
       </c>
       <c r="AD2" t="n">
-        <v>69449.38009552115</v>
+        <v>88218.0924438909</v>
       </c>
       <c r="AE2" t="n">
-        <v>95023.70573706686</v>
+        <v>120703.8859892438</v>
       </c>
       <c r="AF2" t="n">
         <v>4.478399045241926e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.070833333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>85954.77662815319</v>
+        <v>109184.0765194299</v>
       </c>
     </row>
     <row r="3">
@@ -7620,28 +7620,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>58.8877072868215</v>
+        <v>87.05634197398075</v>
       </c>
       <c r="AB3" t="n">
-        <v>80.57275905209187</v>
+        <v>119.1143277435</v>
       </c>
       <c r="AC3" t="n">
-        <v>72.88300801275656</v>
+        <v>107.7462234817004</v>
       </c>
       <c r="AD3" t="n">
-        <v>58887.7072868215</v>
+        <v>87056.34197398074</v>
       </c>
       <c r="AE3" t="n">
-        <v>80572.75905209187</v>
+        <v>119114.3277435</v>
       </c>
       <c r="AF3" t="n">
         <v>4.659706774926112e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.875</v>
       </c>
       <c r="AH3" t="n">
-        <v>72883.00801275656</v>
+        <v>107746.2234817003</v>
       </c>
     </row>
   </sheetData>
@@ -12946,28 +12946,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>67.59260934933837</v>
+        <v>86.17138979571912</v>
       </c>
       <c r="AB2" t="n">
-        <v>92.48319008719679</v>
+        <v>117.9034971318683</v>
       </c>
       <c r="AC2" t="n">
-        <v>83.65672422626982</v>
+        <v>106.650952844231</v>
       </c>
       <c r="AD2" t="n">
-        <v>67592.60934933838</v>
+        <v>86171.38979571912</v>
       </c>
       <c r="AE2" t="n">
-        <v>92483.1900871968</v>
+        <v>117903.4971318683</v>
       </c>
       <c r="AF2" t="n">
         <v>4.990742815781764e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.1125</v>
       </c>
       <c r="AH2" t="n">
-        <v>83656.72422626981</v>
+        <v>106650.952844231</v>
       </c>
     </row>
   </sheetData>
@@ -13243,28 +13243,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>76.22794349576874</v>
+        <v>103.5137700446308</v>
       </c>
       <c r="AB2" t="n">
-        <v>104.2984352303924</v>
+        <v>141.6321068802365</v>
       </c>
       <c r="AC2" t="n">
-        <v>94.34433895580327</v>
+        <v>128.1149373815354</v>
       </c>
       <c r="AD2" t="n">
-        <v>76227.94349576875</v>
+        <v>103513.7700446308</v>
       </c>
       <c r="AE2" t="n">
-        <v>104298.4352303924</v>
+        <v>141632.1068802365</v>
       </c>
       <c r="AF2" t="n">
         <v>5.528126134882821e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.104166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>94344.33895580326</v>
+        <v>128114.9373815354</v>
       </c>
     </row>
   </sheetData>
@@ -13540,28 +13540,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>97.41578229246699</v>
+        <v>135.8633576425544</v>
       </c>
       <c r="AB2" t="n">
-        <v>133.2885710134973</v>
+        <v>185.8942397947741</v>
       </c>
       <c r="AC2" t="n">
-        <v>120.567696867689</v>
+        <v>168.1527544530173</v>
       </c>
       <c r="AD2" t="n">
-        <v>97415.78229246699</v>
+        <v>135863.3576425544</v>
       </c>
       <c r="AE2" t="n">
-        <v>133288.5710134973</v>
+        <v>185894.2397947741</v>
       </c>
       <c r="AF2" t="n">
         <v>2.613871216247323e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.933333333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>120567.696867689</v>
+        <v>168152.7544530173</v>
       </c>
     </row>
     <row r="3">
@@ -13646,28 +13646,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>62.97661835695883</v>
+        <v>91.80375851482921</v>
       </c>
       <c r="AB3" t="n">
-        <v>86.16738756827611</v>
+        <v>125.6099524959218</v>
       </c>
       <c r="AC3" t="n">
-        <v>77.9436930354684</v>
+        <v>113.6219149244197</v>
       </c>
       <c r="AD3" t="n">
-        <v>62976.61835695883</v>
+        <v>91803.75851482921</v>
       </c>
       <c r="AE3" t="n">
-        <v>86167.38756827611</v>
+        <v>125609.9524959218</v>
       </c>
       <c r="AF3" t="n">
         <v>3.710476598451761e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.883333333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>77943.6930354684</v>
+        <v>113621.9149244197</v>
       </c>
     </row>
     <row r="4">
@@ -13752,28 +13752,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>60.90486213173262</v>
+        <v>80.17989793494755</v>
       </c>
       <c r="AB4" t="n">
-        <v>83.33271930148902</v>
+        <v>109.7056736419991</v>
       </c>
       <c r="AC4" t="n">
-        <v>75.37956152958066</v>
+        <v>99.23551812251472</v>
       </c>
       <c r="AD4" t="n">
-        <v>60904.86213173262</v>
+        <v>80179.89793494754</v>
       </c>
       <c r="AE4" t="n">
-        <v>83332.71930148902</v>
+        <v>109705.6736419991</v>
       </c>
       <c r="AF4" t="n">
         <v>3.948884202270036e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.591666666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>75379.56152958065</v>
+        <v>99235.51812251472</v>
       </c>
     </row>
   </sheetData>
@@ -14049,28 +14049,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>137.2478838435484</v>
+        <v>185.8953623895665</v>
       </c>
       <c r="AB2" t="n">
-        <v>187.7886096239582</v>
+        <v>254.3502359458709</v>
       </c>
       <c r="AC2" t="n">
-        <v>169.8663282844695</v>
+        <v>230.0754064100692</v>
       </c>
       <c r="AD2" t="n">
-        <v>137247.8838435484</v>
+        <v>185895.3623895665</v>
       </c>
       <c r="AE2" t="n">
-        <v>187788.6096239582</v>
+        <v>254350.2359458709</v>
       </c>
       <c r="AF2" t="n">
         <v>1.898846812096511e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.625</v>
       </c>
       <c r="AH2" t="n">
-        <v>169866.3282844695</v>
+        <v>230075.4064100692</v>
       </c>
     </row>
     <row r="3">
@@ -14155,28 +14155,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>80.67996922422645</v>
+        <v>109.8889556031058</v>
       </c>
       <c r="AB3" t="n">
-        <v>110.3898932415784</v>
+        <v>150.3549170146746</v>
       </c>
       <c r="AC3" t="n">
-        <v>99.85443676381865</v>
+        <v>136.0052547592865</v>
       </c>
       <c r="AD3" t="n">
-        <v>80679.96922422646</v>
+        <v>109888.9556031058</v>
       </c>
       <c r="AE3" t="n">
-        <v>110389.8932415784</v>
+        <v>150354.9170146746</v>
       </c>
       <c r="AF3" t="n">
         <v>2.911392175013184e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.625</v>
       </c>
       <c r="AH3" t="n">
-        <v>99854.43676381865</v>
+        <v>136005.2547592865</v>
       </c>
     </row>
     <row r="4">
@@ -14261,28 +14261,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>64.77017929818314</v>
+        <v>93.94500025828171</v>
       </c>
       <c r="AB4" t="n">
-        <v>88.62141677438225</v>
+        <v>128.5396939142307</v>
       </c>
       <c r="AC4" t="n">
-        <v>80.16351313839617</v>
+        <v>116.272045933684</v>
       </c>
       <c r="AD4" t="n">
-        <v>64770.17929818314</v>
+        <v>93945.00025828171</v>
       </c>
       <c r="AE4" t="n">
-        <v>88621.41677438225</v>
+        <v>128539.6939142307</v>
       </c>
       <c r="AF4" t="n">
         <v>3.367041518709053e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.8625</v>
       </c>
       <c r="AH4" t="n">
-        <v>80163.51313839617</v>
+        <v>116272.045933684</v>
       </c>
     </row>
     <row r="5">
@@ -14367,28 +14367,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>63.09836619721595</v>
+        <v>92.27318715731451</v>
       </c>
       <c r="AB5" t="n">
-        <v>86.33396833445146</v>
+        <v>126.2522454742999</v>
       </c>
       <c r="AC5" t="n">
-        <v>78.09437556711759</v>
+        <v>114.2029083624055</v>
       </c>
       <c r="AD5" t="n">
-        <v>63098.36619721595</v>
+        <v>92273.1871573145</v>
       </c>
       <c r="AE5" t="n">
-        <v>86333.96833445145</v>
+        <v>126252.2454742999</v>
       </c>
       <c r="AF5" t="n">
         <v>3.514863237128803e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.658333333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>78094.37556711759</v>
+        <v>114202.9083624055</v>
       </c>
     </row>
   </sheetData>
@@ -14664,28 +14664,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>85.92573299513079</v>
+        <v>112.9815866794183</v>
       </c>
       <c r="AB2" t="n">
-        <v>117.5673786596904</v>
+        <v>154.586391290537</v>
       </c>
       <c r="AC2" t="n">
-        <v>106.3469130472924</v>
+        <v>139.8328830691733</v>
       </c>
       <c r="AD2" t="n">
-        <v>85925.73299513079</v>
+        <v>112981.5866794183</v>
       </c>
       <c r="AE2" t="n">
-        <v>117567.3786596904</v>
+        <v>154586.391290537</v>
       </c>
       <c r="AF2" t="n">
         <v>5.495719747956078e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.229166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>106346.9130472924</v>
+        <v>139832.8830691733</v>
       </c>
     </row>
   </sheetData>
@@ -14961,28 +14961,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>71.47984611370688</v>
+        <v>90.33290744581207</v>
       </c>
       <c r="AB2" t="n">
-        <v>97.80187892098584</v>
+        <v>123.597469173924</v>
       </c>
       <c r="AC2" t="n">
-        <v>88.46780486259037</v>
+        <v>111.8015001861347</v>
       </c>
       <c r="AD2" t="n">
-        <v>71479.84611370688</v>
+        <v>90332.90744581207</v>
       </c>
       <c r="AE2" t="n">
-        <v>97801.87892098584</v>
+        <v>123597.469173924</v>
       </c>
       <c r="AF2" t="n">
         <v>4.113669439649846e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.266666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>88467.80486259038</v>
+        <v>111801.5001861347</v>
       </c>
     </row>
     <row r="3">
@@ -15067,28 +15067,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>59.28434220462921</v>
+        <v>87.5795003673916</v>
       </c>
       <c r="AB3" t="n">
-        <v>81.11545244493374</v>
+        <v>119.8301361374838</v>
       </c>
       <c r="AC3" t="n">
-        <v>73.37390750986073</v>
+        <v>108.3937161272059</v>
       </c>
       <c r="AD3" t="n">
-        <v>59284.34220462921</v>
+        <v>87579.50036739161</v>
       </c>
       <c r="AE3" t="n">
-        <v>81115.45244493373</v>
+        <v>119830.1361374838</v>
       </c>
       <c r="AF3" t="n">
         <v>4.505152911564966e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.808333333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>73373.90750986073</v>
+        <v>108393.7161272059</v>
       </c>
     </row>
   </sheetData>
@@ -15364,28 +15364,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>90.48107248202658</v>
+        <v>119.0785965216883</v>
       </c>
       <c r="AB2" t="n">
-        <v>123.8001951130527</v>
+        <v>162.9285891378172</v>
       </c>
       <c r="AC2" t="n">
-        <v>111.9848782461606</v>
+        <v>147.37891326226</v>
       </c>
       <c r="AD2" t="n">
-        <v>90481.07248202658</v>
+        <v>119078.5965216883</v>
       </c>
       <c r="AE2" t="n">
-        <v>123800.1951130527</v>
+        <v>162928.5891378172</v>
       </c>
       <c r="AF2" t="n">
         <v>3.070533036769629e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.279166666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>111984.8782461606</v>
+        <v>147378.91326226</v>
       </c>
     </row>
     <row r="3">
@@ -15470,28 +15470,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>60.59009309461585</v>
+        <v>89.22077152320122</v>
       </c>
       <c r="AB3" t="n">
-        <v>82.90203841827623</v>
+        <v>122.0757957406345</v>
       </c>
       <c r="AC3" t="n">
-        <v>74.98998422539712</v>
+        <v>110.4250531296357</v>
       </c>
       <c r="AD3" t="n">
-        <v>60590.09309461585</v>
+        <v>89220.77152320123</v>
       </c>
       <c r="AE3" t="n">
-        <v>82902.03841827624</v>
+        <v>122075.7957406345</v>
       </c>
       <c r="AF3" t="n">
         <v>4.087610075134002e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.716666666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>74989.98422539713</v>
+        <v>110425.0531296357</v>
       </c>
     </row>
     <row r="4">
@@ -15576,28 +15576,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>60.58448592746859</v>
+        <v>89.21516435605398</v>
       </c>
       <c r="AB4" t="n">
-        <v>82.89436644481461</v>
+        <v>122.0681237671729</v>
       </c>
       <c r="AC4" t="n">
-        <v>74.98304445431501</v>
+        <v>110.4181133585536</v>
       </c>
       <c r="AD4" t="n">
-        <v>60584.4859274686</v>
+        <v>89215.16435605398</v>
       </c>
       <c r="AE4" t="n">
-        <v>82894.3664448146</v>
+        <v>122068.1237671729</v>
       </c>
       <c r="AF4" t="n">
         <v>4.098071068656522e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.708333333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>74983.04445431501</v>
+        <v>110418.1133585536</v>
       </c>
     </row>
   </sheetData>
